--- a/CustomLocalization/Localization/RogueTech/RU/RogueTech Core/Contracts/threewaybattle/2/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/RogueTech Core/Contracts/threewaybattle/2/LocalizationDef.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="749">
   <si>
     <t>ThreeWayBattle_Spoiler.contractName</t>
   </si>
@@ -167,6 +167,11 @@
     <t>ThreeWayBattle_Spoiler.dialogueList23.dialogueContent0.words</t>
   </si>
   <si>
+    <t xml:space="preserve">Another {TEAM_EMP.FactionDef.Demonym} lance has dropped in Commander!
+---
+Another {TEAM_TAR.FactionDef.Demonym} lance has dropped in Commander!</t>
+  </si>
+  <si>
     <t>Another {TEAM_EMP.FactionDef.Demonym} lance has dropped in Commander!</t>
   </si>
   <si>
@@ -176,6 +181,11 @@
     <t>ThreeWayBattle_Spoiler.dialogueList24.dialogueContent0.words</t>
   </si>
   <si>
+    <t xml:space="preserve">Another {TEAM_EMP.FactionDef.Demonym} lance has dropped in Commander!  
+---
+Another {TEAM_TAR.FactionDef.Demonym} lance has dropped in Commander!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Another {TEAM_EMP.FactionDef.Demonym} lance has dropped in Commander!  </t>
   </si>
   <si>
@@ -185,6 +195,11 @@
     <t>ThreeWayBattle_Spoiler.dialogueList25.dialogueContent0.words</t>
   </si>
   <si>
+    <t xml:space="preserve">More {TEAM_EMP.FactionDef.Demonym} forces on the field!
+---
+More {TEAM_TAR.FactionDef.Demonym} forces on the field!</t>
+  </si>
+  <si>
     <t>More {TEAM_EMP.FactionDef.Demonym} forces on the field!</t>
   </si>
   <si>
@@ -837,6 +852,11 @@
   </si>
   <si>
     <t>ThreeWayBattle_TrainingDay.dialogueList24.dialogueContent0.words</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Another {TEAM_EMP.FactionDef.Demonym} lance has dropped in Commander!  
+---
+Another {TEAM_TAR.FactionDef.Demonym} lance has dropped in Commander!  </t>
   </si>
   <si>
     <t>ThreeWayBattle_TrainingDay.dialogueList24.dialogueContent1.words</t>
@@ -2260,12 +2280,17 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000" tint="0"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2280,8 +2305,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2676,23 +2702,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
+    <row r="28" s="1" customFormat="1">
+      <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="0" t="s">
+      <c r="C28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>45</v>
@@ -2704,23 +2730,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="0" t="s">
+    <row r="30" s="1" customFormat="1">
+      <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="0" t="s">
+      <c r="B30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>49</v>
@@ -2732,23 +2758,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="0" t="s">
+    <row r="32" s="1" customFormat="1">
+      <c r="A32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>45</v>
@@ -2762,13 +2788,13 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>2</v>
@@ -2776,7 +2802,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>49</v>
@@ -2790,13 +2816,13 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>2</v>
@@ -2804,13 +2830,13 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>2</v>
@@ -2818,13 +2844,13 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>2</v>
@@ -2832,13 +2858,13 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>2</v>
@@ -2846,13 +2872,13 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>2</v>
@@ -2860,13 +2886,13 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>66</v>
-      </c>
       <c r="C41" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>2</v>
@@ -2874,13 +2900,13 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>2</v>
@@ -2888,13 +2914,13 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>2</v>
@@ -2902,13 +2928,13 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>2</v>
@@ -2916,13 +2942,13 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>2</v>
@@ -2930,13 +2956,13 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>2</v>
@@ -2944,13 +2970,13 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>2</v>
@@ -2958,13 +2984,13 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>2</v>
@@ -2972,13 +2998,13 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>2</v>
@@ -2986,13 +3012,13 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="B50" s="0" t="s">
-        <v>78</v>
-      </c>
       <c r="C50" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>2</v>
@@ -3000,13 +3026,13 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>2</v>
@@ -3014,13 +3040,13 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>2</v>
@@ -3028,13 +3054,13 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>2</v>
@@ -3042,13 +3068,13 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>2</v>
@@ -3056,13 +3082,13 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>2</v>
@@ -3070,13 +3096,13 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>2</v>
@@ -3084,13 +3110,13 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>2</v>
@@ -3098,13 +3124,13 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B58" s="0" t="s">
-        <v>91</v>
-      </c>
       <c r="C58" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>2</v>
@@ -3112,13 +3138,13 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>2</v>
@@ -3126,13 +3152,13 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>2</v>
@@ -3140,13 +3166,13 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>2</v>
@@ -3154,13 +3180,13 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>2</v>
@@ -3168,13 +3194,13 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>2</v>
@@ -3182,7 +3208,7 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>45</v>
@@ -3196,13 +3222,13 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>2</v>
@@ -3210,7 +3236,7 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>49</v>
@@ -3224,13 +3250,13 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>2</v>
@@ -3238,13 +3264,13 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>2</v>
@@ -3252,13 +3278,13 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D69" s="0" t="s">
         <v>2</v>
@@ -3266,13 +3292,13 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D70" s="0" t="s">
         <v>2</v>
@@ -3280,13 +3306,13 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D71" s="0" t="s">
         <v>2</v>
@@ -3294,13 +3320,13 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>2</v>
@@ -3308,13 +3334,13 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>2</v>
@@ -3322,13 +3348,13 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>2</v>
@@ -3336,13 +3362,13 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>2</v>
@@ -3350,13 +3376,13 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>2</v>
@@ -3364,13 +3390,13 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D77" s="0" t="s">
         <v>2</v>
@@ -3378,13 +3404,13 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>2</v>
@@ -3392,13 +3418,13 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>2</v>
@@ -3406,13 +3432,13 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>2</v>
@@ -3420,13 +3446,13 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>2</v>
@@ -3434,13 +3460,13 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>2</v>
@@ -3448,13 +3474,13 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>2</v>
@@ -3462,13 +3488,13 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>2</v>
@@ -3476,13 +3502,13 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>2</v>
@@ -3490,13 +3516,13 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>2</v>
@@ -3504,13 +3530,13 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D87" s="0" t="s">
         <v>2</v>
@@ -3518,13 +3544,13 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>2</v>
@@ -3532,13 +3558,13 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D89" s="0" t="s">
         <v>2</v>
@@ -3546,13 +3572,13 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>2</v>
@@ -3560,13 +3586,13 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>2</v>
@@ -3574,13 +3600,13 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>2</v>
@@ -3588,13 +3614,13 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>2</v>
@@ -3602,13 +3628,13 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>2</v>
@@ -3616,13 +3642,13 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D95" s="0" t="s">
         <v>2</v>
@@ -3630,13 +3656,13 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>2</v>
@@ -3644,13 +3670,13 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B97" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="B97" s="0" t="s">
-        <v>151</v>
-      </c>
       <c r="C97" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>2</v>
@@ -3658,13 +3684,13 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>2</v>
@@ -3672,13 +3698,13 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>2</v>
@@ -3686,13 +3712,13 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>2</v>
@@ -3700,13 +3726,13 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>2</v>
@@ -3714,13 +3740,13 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>2</v>
@@ -3728,13 +3754,13 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B103" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="B103" s="0" t="s">
-        <v>161</v>
-      </c>
       <c r="C103" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>2</v>
@@ -3742,13 +3768,13 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>2</v>
@@ -3756,13 +3782,13 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>2</v>
@@ -3770,13 +3796,13 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>2</v>
@@ -3784,13 +3810,13 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>2</v>
@@ -3798,13 +3824,13 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>2</v>
@@ -3812,13 +3838,13 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>2</v>
@@ -3826,13 +3852,13 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>2</v>
@@ -3840,13 +3866,13 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D111" s="0" t="s">
         <v>2</v>
@@ -3854,13 +3880,13 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>2</v>
@@ -3868,13 +3894,13 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>2</v>
@@ -3882,13 +3908,13 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D114" s="0" t="s">
         <v>2</v>
@@ -3896,13 +3922,13 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D115" s="0" t="s">
         <v>2</v>
@@ -3910,13 +3936,13 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>2</v>
@@ -3924,13 +3950,13 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D117" s="0" t="s">
         <v>2</v>
@@ -3938,13 +3964,13 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D118" s="0" t="s">
         <v>2</v>
@@ -3952,13 +3978,13 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D119" s="0" t="s">
         <v>2</v>
@@ -3966,13 +3992,13 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D120" s="0" t="s">
         <v>2</v>
@@ -3980,13 +4006,13 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D121" s="0" t="s">
         <v>2</v>
@@ -3994,13 +4020,13 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D122" s="0" t="s">
         <v>2</v>
@@ -4008,13 +4034,13 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D123" s="0" t="s">
         <v>2</v>
@@ -4022,13 +4048,13 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D124" s="0" t="s">
         <v>2</v>
@@ -4036,13 +4062,13 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D125" s="0" t="s">
         <v>2</v>
@@ -4050,13 +4076,13 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D126" s="0" t="s">
         <v>2</v>
@@ -4064,13 +4090,13 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D127" s="0" t="s">
         <v>2</v>
@@ -4078,13 +4104,13 @@
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D128" s="0" t="s">
         <v>2</v>
@@ -4092,13 +4118,13 @@
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D129" s="0" t="s">
         <v>2</v>
@@ -4106,13 +4132,13 @@
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D130" s="0" t="s">
         <v>2</v>
@@ -4120,13 +4146,13 @@
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D131" s="0" t="s">
         <v>2</v>
@@ -4134,13 +4160,13 @@
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D132" s="0" t="s">
         <v>2</v>
@@ -4148,13 +4174,13 @@
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D133" s="0" t="s">
         <v>2</v>
@@ -4162,13 +4188,13 @@
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D134" s="0" t="s">
         <v>2</v>
@@ -4176,13 +4202,13 @@
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D135" s="0" t="s">
         <v>2</v>
@@ -4190,13 +4216,13 @@
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D136" s="0" t="s">
         <v>2</v>
@@ -4204,13 +4230,13 @@
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D137" s="0" t="s">
         <v>2</v>
@@ -4218,13 +4244,13 @@
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D138" s="0" t="s">
         <v>2</v>
@@ -4232,13 +4258,13 @@
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D139" s="0" t="s">
         <v>2</v>
@@ -4246,13 +4272,13 @@
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D140" s="0" t="s">
         <v>2</v>
@@ -4260,13 +4286,13 @@
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D141" s="0" t="s">
         <v>2</v>
@@ -4274,13 +4300,13 @@
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D142" s="0" t="s">
         <v>2</v>
@@ -4288,13 +4314,13 @@
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D143" s="0" t="s">
         <v>2</v>
@@ -4302,13 +4328,13 @@
     </row>
     <row r="144">
       <c r="A144" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D144" s="0" t="s">
         <v>2</v>
@@ -4316,13 +4342,13 @@
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D145" s="0" t="s">
         <v>2</v>
@@ -4330,13 +4356,13 @@
     </row>
     <row r="146">
       <c r="A146" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D146" s="0" t="s">
         <v>2</v>
@@ -4344,13 +4370,13 @@
     </row>
     <row r="147">
       <c r="A147" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D147" s="0" t="s">
         <v>2</v>
@@ -4358,13 +4384,13 @@
     </row>
     <row r="148">
       <c r="A148" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D148" s="0" t="s">
         <v>2</v>
@@ -4372,13 +4398,13 @@
     </row>
     <row r="149">
       <c r="A149" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D149" s="0" t="s">
         <v>2</v>
@@ -4386,13 +4412,13 @@
     </row>
     <row r="150">
       <c r="A150" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D150" s="0" t="s">
         <v>2</v>
@@ -4400,13 +4426,13 @@
     </row>
     <row r="151">
       <c r="A151" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D151" s="0" t="s">
         <v>2</v>
@@ -4414,13 +4440,13 @@
     </row>
     <row r="152">
       <c r="A152" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D152" s="0" t="s">
         <v>2</v>
@@ -4428,13 +4454,13 @@
     </row>
     <row r="153">
       <c r="A153" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D153" s="0" t="s">
         <v>2</v>
@@ -4442,13 +4468,13 @@
     </row>
     <row r="154">
       <c r="A154" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="B154" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="B154" s="0" t="s">
-        <v>251</v>
-      </c>
       <c r="C154" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D154" s="0" t="s">
         <v>2</v>
@@ -4456,7 +4482,7 @@
     </row>
     <row r="155">
       <c r="A155" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B155" s="0" t="s">
         <v>49</v>
@@ -4470,7 +4496,7 @@
     </row>
     <row r="156">
       <c r="A156" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B156" s="0" t="s">
         <v>26</v>
@@ -4484,7 +4510,7 @@
     </row>
     <row r="157">
       <c r="A157" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B157" s="0" t="s">
         <v>26</v>
@@ -4498,7 +4524,7 @@
     </row>
     <row r="158">
       <c r="A158" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B158" s="0" t="s">
         <v>29</v>
@@ -4512,7 +4538,7 @@
     </row>
     <row r="159">
       <c r="A159" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B159" s="0" t="s">
         <v>31</v>
@@ -4526,7 +4552,7 @@
     </row>
     <row r="160">
       <c r="A160" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B160" s="0" t="s">
         <v>31</v>
@@ -4540,7 +4566,7 @@
     </row>
     <row r="161">
       <c r="A161" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B161" s="0" t="s">
         <v>34</v>
@@ -4554,7 +4580,7 @@
     </row>
     <row r="162">
       <c r="A162" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B162" s="0" t="s">
         <v>34</v>
@@ -4568,7 +4594,7 @@
     </row>
     <row r="163">
       <c r="A163" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B163" s="0" t="s">
         <v>29</v>
@@ -4582,7 +4608,7 @@
     </row>
     <row r="164">
       <c r="A164" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B164" s="0" t="s">
         <v>38</v>
@@ -4596,13 +4622,13 @@
     </row>
     <row r="165">
       <c r="A165" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D165" s="0" t="s">
         <v>2</v>
@@ -4610,7 +4636,7 @@
     </row>
     <row r="166">
       <c r="A166" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B166" s="0" t="s">
         <v>38</v>
@@ -4624,7 +4650,7 @@
     </row>
     <row r="167">
       <c r="A167" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B167" s="0" t="s">
         <v>43</v>
@@ -4638,7 +4664,7 @@
     </row>
     <row r="168">
       <c r="A168" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B168" s="0" t="s">
         <v>45</v>
@@ -4652,7 +4678,7 @@
     </row>
     <row r="169">
       <c r="A169" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B169" s="0" t="s">
         <v>47</v>
@@ -4666,7 +4692,7 @@
     </row>
     <row r="170">
       <c r="A170" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B170" s="0" t="s">
         <v>49</v>
@@ -4678,23 +4704,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="B171" s="0" t="s">
+    <row r="171" s="1" customFormat="1">
+      <c r="A171" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C171" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D171" s="0" t="s">
+      <c r="C171" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D171" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B172" s="0" t="s">
         <v>45</v>
@@ -4706,23 +4732,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="B173" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C173" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D173" s="0" t="s">
+    <row r="173" s="1" customFormat="1">
+      <c r="A173" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D173" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B174" s="0" t="s">
         <v>49</v>
@@ -4734,23 +4760,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="B175" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C175" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D175" s="0" t="s">
+    <row r="175" s="1" customFormat="1">
+      <c r="A175" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D175" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B176" s="0" t="s">
         <v>45</v>
@@ -4762,23 +4788,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="B177" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C177" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D177" s="0" t="s">
+    <row r="177" s="1" customFormat="1">
+      <c r="A177" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D177" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B178" s="0" t="s">
         <v>49</v>
@@ -4792,13 +4818,13 @@
     </row>
     <row r="179">
       <c r="A179" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D179" s="0" t="s">
         <v>2</v>
@@ -4806,13 +4832,13 @@
     </row>
     <row r="180">
       <c r="A180" s="0" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D180" s="0" t="s">
         <v>2</v>
@@ -4820,13 +4846,13 @@
     </row>
     <row r="181">
       <c r="A181" s="0" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D181" s="0" t="s">
         <v>2</v>
@@ -4834,13 +4860,13 @@
     </row>
     <row r="182">
       <c r="A182" s="0" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D182" s="0" t="s">
         <v>2</v>
@@ -4848,13 +4874,13 @@
     </row>
     <row r="183">
       <c r="A183" s="0" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D183" s="0" t="s">
         <v>2</v>
@@ -4862,13 +4888,13 @@
     </row>
     <row r="184">
       <c r="A184" s="0" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D184" s="0" t="s">
         <v>2</v>
@@ -4876,13 +4902,13 @@
     </row>
     <row r="185">
       <c r="A185" s="0" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D185" s="0" t="s">
         <v>2</v>
@@ -4890,13 +4916,13 @@
     </row>
     <row r="186">
       <c r="A186" s="0" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D186" s="0" t="s">
         <v>2</v>
@@ -4904,13 +4930,13 @@
     </row>
     <row r="187">
       <c r="A187" s="0" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D187" s="0" t="s">
         <v>2</v>
@@ -4918,13 +4944,13 @@
     </row>
     <row r="188">
       <c r="A188" s="0" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D188" s="0" t="s">
         <v>2</v>
@@ -4932,13 +4958,13 @@
     </row>
     <row r="189">
       <c r="A189" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D189" s="0" t="s">
         <v>2</v>
@@ -4946,13 +4972,13 @@
     </row>
     <row r="190">
       <c r="A190" s="0" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D190" s="0" t="s">
         <v>2</v>
@@ -4960,13 +4986,13 @@
     </row>
     <row r="191">
       <c r="A191" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D191" s="0" t="s">
         <v>2</v>
@@ -4974,13 +5000,13 @@
     </row>
     <row r="192">
       <c r="A192" s="0" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D192" s="0" t="s">
         <v>2</v>
@@ -4988,13 +5014,13 @@
     </row>
     <row r="193">
       <c r="A193" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D193" s="0" t="s">
         <v>2</v>
@@ -5002,13 +5028,13 @@
     </row>
     <row r="194">
       <c r="A194" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D194" s="0" t="s">
         <v>2</v>
@@ -5016,13 +5042,13 @@
     </row>
     <row r="195">
       <c r="A195" s="0" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D195" s="0" t="s">
         <v>2</v>
@@ -5030,13 +5056,13 @@
     </row>
     <row r="196">
       <c r="A196" s="0" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D196" s="0" t="s">
         <v>2</v>
@@ -5044,13 +5070,13 @@
     </row>
     <row r="197">
       <c r="A197" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D197" s="0" t="s">
         <v>2</v>
@@ -5058,13 +5084,13 @@
     </row>
     <row r="198">
       <c r="A198" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D198" s="0" t="s">
         <v>2</v>
@@ -5072,13 +5098,13 @@
     </row>
     <row r="199">
       <c r="A199" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D199" s="0" t="s">
         <v>2</v>
@@ -5086,13 +5112,13 @@
     </row>
     <row r="200">
       <c r="A200" s="0" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D200" s="0" t="s">
         <v>2</v>
@@ -5100,13 +5126,13 @@
     </row>
     <row r="201">
       <c r="A201" s="0" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D201" s="0" t="s">
         <v>2</v>
@@ -5114,13 +5140,13 @@
     </row>
     <row r="202">
       <c r="A202" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D202" s="0" t="s">
         <v>2</v>
@@ -5128,13 +5154,13 @@
     </row>
     <row r="203">
       <c r="A203" s="0" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D203" s="0" t="s">
         <v>2</v>
@@ -5142,13 +5168,13 @@
     </row>
     <row r="204">
       <c r="A204" s="0" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D204" s="0" t="s">
         <v>2</v>
@@ -5156,13 +5182,13 @@
     </row>
     <row r="205">
       <c r="A205" s="0" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D205" s="0" t="s">
         <v>2</v>
@@ -5170,13 +5196,13 @@
     </row>
     <row r="206">
       <c r="A206" s="0" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D206" s="0" t="s">
         <v>2</v>
@@ -5184,7 +5210,7 @@
     </row>
     <row r="207">
       <c r="A207" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B207" s="0" t="s">
         <v>45</v>
@@ -5198,13 +5224,13 @@
     </row>
     <row r="208">
       <c r="A208" s="0" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D208" s="0" t="s">
         <v>2</v>
@@ -5212,7 +5238,7 @@
     </row>
     <row r="209">
       <c r="A209" s="0" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B209" s="0" t="s">
         <v>49</v>
@@ -5226,13 +5252,13 @@
     </row>
     <row r="210">
       <c r="A210" s="0" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D210" s="0" t="s">
         <v>2</v>
@@ -5240,13 +5266,13 @@
     </row>
     <row r="211">
       <c r="A211" s="0" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D211" s="0" t="s">
         <v>2</v>
@@ -5254,13 +5280,13 @@
     </row>
     <row r="212">
       <c r="A212" s="0" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D212" s="0" t="s">
         <v>2</v>
@@ -5268,13 +5294,13 @@
     </row>
     <row r="213">
       <c r="A213" s="0" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D213" s="0" t="s">
         <v>2</v>
@@ -5282,13 +5308,13 @@
     </row>
     <row r="214">
       <c r="A214" s="0" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D214" s="0" t="s">
         <v>2</v>
@@ -5296,13 +5322,13 @@
     </row>
     <row r="215">
       <c r="A215" s="0" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D215" s="0" t="s">
         <v>2</v>
@@ -5310,13 +5336,13 @@
     </row>
     <row r="216">
       <c r="A216" s="0" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D216" s="0" t="s">
         <v>2</v>
@@ -5324,13 +5350,13 @@
     </row>
     <row r="217">
       <c r="A217" s="0" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D217" s="0" t="s">
         <v>2</v>
@@ -5338,13 +5364,13 @@
     </row>
     <row r="218">
       <c r="A218" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D218" s="0" t="s">
         <v>2</v>
@@ -5352,13 +5378,13 @@
     </row>
     <row r="219">
       <c r="A219" s="0" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D219" s="0" t="s">
         <v>2</v>
@@ -5366,13 +5392,13 @@
     </row>
     <row r="220">
       <c r="A220" s="0" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D220" s="0" t="s">
         <v>2</v>
@@ -5380,13 +5406,13 @@
     </row>
     <row r="221">
       <c r="A221" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D221" s="0" t="s">
         <v>2</v>
@@ -5394,13 +5420,13 @@
     </row>
     <row r="222">
       <c r="A222" s="0" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D222" s="0" t="s">
         <v>2</v>
@@ -5408,13 +5434,13 @@
     </row>
     <row r="223">
       <c r="A223" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D223" s="0" t="s">
         <v>2</v>
@@ -5422,13 +5448,13 @@
     </row>
     <row r="224">
       <c r="A224" s="0" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D224" s="0" t="s">
         <v>2</v>
@@ -5436,13 +5462,13 @@
     </row>
     <row r="225">
       <c r="A225" s="0" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D225" s="0" t="s">
         <v>2</v>
@@ -5450,13 +5476,13 @@
     </row>
     <row r="226">
       <c r="A226" s="0" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D226" s="0" t="s">
         <v>2</v>
@@ -5464,13 +5490,13 @@
     </row>
     <row r="227">
       <c r="A227" s="0" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D227" s="0" t="s">
         <v>2</v>
@@ -5478,13 +5504,13 @@
     </row>
     <row r="228">
       <c r="A228" s="0" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D228" s="0" t="s">
         <v>2</v>
@@ -5492,13 +5518,13 @@
     </row>
     <row r="229">
       <c r="A229" s="0" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D229" s="0" t="s">
         <v>2</v>
@@ -5506,13 +5532,13 @@
     </row>
     <row r="230">
       <c r="A230" s="0" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D230" s="0" t="s">
         <v>2</v>
@@ -5520,13 +5546,13 @@
     </row>
     <row r="231">
       <c r="A231" s="0" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D231" s="0" t="s">
         <v>2</v>
@@ -5534,13 +5560,13 @@
     </row>
     <row r="232">
       <c r="A232" s="0" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D232" s="0" t="s">
         <v>2</v>
@@ -5548,13 +5574,13 @@
     </row>
     <row r="233">
       <c r="A233" s="0" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D233" s="0" t="s">
         <v>2</v>
@@ -5562,13 +5588,13 @@
     </row>
     <row r="234">
       <c r="A234" s="0" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D234" s="0" t="s">
         <v>2</v>
@@ -5576,13 +5602,13 @@
     </row>
     <row r="235">
       <c r="A235" s="0" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D235" s="0" t="s">
         <v>2</v>
@@ -5590,13 +5616,13 @@
     </row>
     <row r="236">
       <c r="A236" s="0" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D236" s="0" t="s">
         <v>2</v>
@@ -5604,13 +5630,13 @@
     </row>
     <row r="237">
       <c r="A237" s="0" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D237" s="0" t="s">
         <v>2</v>
@@ -5618,13 +5644,13 @@
     </row>
     <row r="238">
       <c r="A238" s="0" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D238" s="0" t="s">
         <v>2</v>
@@ -5632,13 +5658,13 @@
     </row>
     <row r="239">
       <c r="A239" s="0" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D239" s="0" t="s">
         <v>2</v>
@@ -5646,13 +5672,13 @@
     </row>
     <row r="240">
       <c r="A240" s="0" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D240" s="0" t="s">
         <v>2</v>
@@ -5660,13 +5686,13 @@
     </row>
     <row r="241">
       <c r="A241" s="0" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D241" s="0" t="s">
         <v>2</v>
@@ -5674,13 +5700,13 @@
     </row>
     <row r="242">
       <c r="A242" s="0" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D242" s="0" t="s">
         <v>2</v>
@@ -5688,13 +5714,13 @@
     </row>
     <row r="243">
       <c r="A243" s="0" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D243" s="0" t="s">
         <v>2</v>
@@ -5702,13 +5728,13 @@
     </row>
     <row r="244">
       <c r="A244" s="0" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D244" s="0" t="s">
         <v>2</v>
@@ -5716,13 +5742,13 @@
     </row>
     <row r="245">
       <c r="A245" s="0" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D245" s="0" t="s">
         <v>2</v>
@@ -5730,13 +5756,13 @@
     </row>
     <row r="246">
       <c r="A246" s="0" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D246" s="0" t="s">
         <v>2</v>
@@ -5744,13 +5770,13 @@
     </row>
     <row r="247">
       <c r="A247" s="0" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D247" s="0" t="s">
         <v>2</v>
@@ -5758,13 +5784,13 @@
     </row>
     <row r="248">
       <c r="A248" s="0" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D248" s="0" t="s">
         <v>2</v>
@@ -5772,13 +5798,13 @@
     </row>
     <row r="249">
       <c r="A249" s="0" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D249" s="0" t="s">
         <v>2</v>
@@ -5786,13 +5812,13 @@
     </row>
     <row r="250">
       <c r="A250" s="0" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D250" s="0" t="s">
         <v>2</v>
@@ -5800,13 +5826,13 @@
     </row>
     <row r="251">
       <c r="A251" s="0" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D251" s="0" t="s">
         <v>2</v>
@@ -5814,13 +5840,13 @@
     </row>
     <row r="252">
       <c r="A252" s="0" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D252" s="0" t="s">
         <v>2</v>
@@ -5828,13 +5854,13 @@
     </row>
     <row r="253">
       <c r="A253" s="0" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D253" s="0" t="s">
         <v>2</v>
@@ -5842,13 +5868,13 @@
     </row>
     <row r="254">
       <c r="A254" s="0" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D254" s="0" t="s">
         <v>2</v>
@@ -5856,13 +5882,13 @@
     </row>
     <row r="255">
       <c r="A255" s="0" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D255" s="0" t="s">
         <v>2</v>
@@ -5870,13 +5896,13 @@
     </row>
     <row r="256">
       <c r="A256" s="0" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D256" s="0" t="s">
         <v>2</v>
@@ -5884,13 +5910,13 @@
     </row>
     <row r="257">
       <c r="A257" s="0" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D257" s="0" t="s">
         <v>2</v>
@@ -5898,13 +5924,13 @@
     </row>
     <row r="258">
       <c r="A258" s="0" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D258" s="0" t="s">
         <v>2</v>
@@ -5912,13 +5938,13 @@
     </row>
     <row r="259">
       <c r="A259" s="0" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D259" s="0" t="s">
         <v>2</v>
@@ -5926,13 +5952,13 @@
     </row>
     <row r="260">
       <c r="A260" s="0" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D260" s="0" t="s">
         <v>2</v>
@@ -5940,13 +5966,13 @@
     </row>
     <row r="261">
       <c r="A261" s="0" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D261" s="0" t="s">
         <v>2</v>
@@ -5954,13 +5980,13 @@
     </row>
     <row r="262">
       <c r="A262" s="0" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D262" s="0" t="s">
         <v>2</v>
@@ -5968,13 +5994,13 @@
     </row>
     <row r="263">
       <c r="A263" s="0" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C263" s="0" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D263" s="0" t="s">
         <v>2</v>
@@ -5982,13 +6008,13 @@
     </row>
     <row r="264">
       <c r="A264" s="0" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D264" s="0" t="s">
         <v>2</v>
@@ -5996,13 +6022,13 @@
     </row>
     <row r="265">
       <c r="A265" s="0" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D265" s="0" t="s">
         <v>2</v>
@@ -6010,13 +6036,13 @@
     </row>
     <row r="266">
       <c r="A266" s="0" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C266" s="0" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D266" s="0" t="s">
         <v>2</v>
@@ -6024,13 +6050,13 @@
     </row>
     <row r="267">
       <c r="A267" s="0" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C267" s="0" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D267" s="0" t="s">
         <v>2</v>
@@ -6038,13 +6064,13 @@
     </row>
     <row r="268">
       <c r="A268" s="0" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D268" s="0" t="s">
         <v>2</v>
@@ -6052,13 +6078,13 @@
     </row>
     <row r="269">
       <c r="A269" s="0" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D269" s="0" t="s">
         <v>2</v>
@@ -6066,13 +6092,13 @@
     </row>
     <row r="270">
       <c r="A270" s="0" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D270" s="0" t="s">
         <v>2</v>
@@ -6080,13 +6106,13 @@
     </row>
     <row r="271">
       <c r="A271" s="0" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C271" s="0" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D271" s="0" t="s">
         <v>2</v>
@@ -6094,13 +6120,13 @@
     </row>
     <row r="272">
       <c r="A272" s="0" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D272" s="0" t="s">
         <v>2</v>
@@ -6108,13 +6134,13 @@
     </row>
     <row r="273">
       <c r="A273" s="0" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D273" s="0" t="s">
         <v>2</v>
@@ -6122,13 +6148,13 @@
     </row>
     <row r="274">
       <c r="A274" s="0" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D274" s="0" t="s">
         <v>2</v>
@@ -6136,13 +6162,13 @@
     </row>
     <row r="275">
       <c r="A275" s="0" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D275" s="0" t="s">
         <v>2</v>
@@ -6150,13 +6176,13 @@
     </row>
     <row r="276">
       <c r="A276" s="0" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D276" s="0" t="s">
         <v>2</v>
@@ -6164,13 +6190,13 @@
     </row>
     <row r="277">
       <c r="A277" s="0" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D277" s="0" t="s">
         <v>2</v>
@@ -6178,13 +6204,13 @@
     </row>
     <row r="278">
       <c r="A278" s="0" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D278" s="0" t="s">
         <v>2</v>
@@ -6192,13 +6218,13 @@
     </row>
     <row r="279">
       <c r="A279" s="0" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C279" s="0" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D279" s="0" t="s">
         <v>2</v>
@@ -6206,13 +6232,13 @@
     </row>
     <row r="280">
       <c r="A280" s="0" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D280" s="0" t="s">
         <v>2</v>
@@ -6220,13 +6246,13 @@
     </row>
     <row r="281">
       <c r="A281" s="0" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D281" s="0" t="s">
         <v>2</v>
@@ -6234,13 +6260,13 @@
     </row>
     <row r="282">
       <c r="A282" s="0" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C282" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D282" s="0" t="s">
         <v>2</v>
@@ -6248,13 +6274,13 @@
     </row>
     <row r="283">
       <c r="A283" s="0" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D283" s="0" t="s">
         <v>2</v>
@@ -6262,13 +6288,13 @@
     </row>
     <row r="284">
       <c r="A284" s="0" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C284" s="0" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D284" s="0" t="s">
         <v>2</v>
@@ -6276,13 +6302,13 @@
     </row>
     <row r="285">
       <c r="A285" s="0" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C285" s="0" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D285" s="0" t="s">
         <v>2</v>
@@ -6290,13 +6316,13 @@
     </row>
     <row r="286">
       <c r="A286" s="0" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C286" s="0" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D286" s="0" t="s">
         <v>2</v>
@@ -6304,13 +6330,13 @@
     </row>
     <row r="287">
       <c r="A287" s="0" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C287" s="0" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D287" s="0" t="s">
         <v>2</v>
@@ -6318,13 +6344,13 @@
     </row>
     <row r="288">
       <c r="A288" s="0" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C288" s="0" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D288" s="0" t="s">
         <v>2</v>
@@ -6332,13 +6358,13 @@
     </row>
     <row r="289">
       <c r="A289" s="0" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C289" s="0" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D289" s="0" t="s">
         <v>2</v>
@@ -6346,13 +6372,13 @@
     </row>
     <row r="290">
       <c r="A290" s="0" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C290" s="0" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D290" s="0" t="s">
         <v>2</v>
@@ -6360,13 +6386,13 @@
     </row>
     <row r="291">
       <c r="A291" s="0" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C291" s="0" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="D291" s="0" t="s">
         <v>2</v>
@@ -6374,13 +6400,13 @@
     </row>
     <row r="292">
       <c r="A292" s="0" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C292" s="0" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D292" s="0" t="s">
         <v>2</v>
@@ -6388,13 +6414,13 @@
     </row>
     <row r="293">
       <c r="A293" s="0" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C293" s="0" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D293" s="0" t="s">
         <v>2</v>
@@ -6402,13 +6428,13 @@
     </row>
     <row r="294">
       <c r="A294" s="0" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B294" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C294" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D294" s="0" t="s">
         <v>2</v>
@@ -6416,13 +6442,13 @@
     </row>
     <row r="295">
       <c r="A295" s="0" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C295" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D295" s="0" t="s">
         <v>2</v>
@@ -6430,13 +6456,13 @@
     </row>
     <row r="296">
       <c r="A296" s="0" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C296" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D296" s="0" t="s">
         <v>2</v>
@@ -6444,13 +6470,13 @@
     </row>
     <row r="297">
       <c r="A297" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C297" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D297" s="0" t="s">
         <v>2</v>
@@ -6458,13 +6484,13 @@
     </row>
     <row r="298">
       <c r="A298" s="0" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C298" s="0" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="D298" s="0" t="s">
         <v>2</v>
@@ -6472,13 +6498,13 @@
     </row>
     <row r="299">
       <c r="A299" s="0" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C299" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D299" s="0" t="s">
         <v>2</v>
@@ -6486,13 +6512,13 @@
     </row>
     <row r="300">
       <c r="A300" s="0" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C300" s="0" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D300" s="0" t="s">
         <v>2</v>
@@ -6500,13 +6526,13 @@
     </row>
     <row r="301">
       <c r="A301" s="0" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B301" s="0" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C301" s="0" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D301" s="0" t="s">
         <v>2</v>
@@ -6514,7 +6540,7 @@
     </row>
     <row r="302">
       <c r="A302" s="0" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B302" s="0" t="s">
         <v>26</v>
@@ -6528,7 +6554,7 @@
     </row>
     <row r="303">
       <c r="A303" s="0" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B303" s="0" t="s">
         <v>26</v>
@@ -6542,7 +6568,7 @@
     </row>
     <row r="304">
       <c r="A304" s="0" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B304" s="0" t="s">
         <v>29</v>
@@ -6556,7 +6582,7 @@
     </row>
     <row r="305">
       <c r="A305" s="0" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B305" s="0" t="s">
         <v>31</v>
@@ -6570,7 +6596,7 @@
     </row>
     <row r="306">
       <c r="A306" s="0" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B306" s="0" t="s">
         <v>31</v>
@@ -6584,7 +6610,7 @@
     </row>
     <row r="307">
       <c r="A307" s="0" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B307" s="0" t="s">
         <v>34</v>
@@ -6598,7 +6624,7 @@
     </row>
     <row r="308">
       <c r="A308" s="0" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B308" s="0" t="s">
         <v>34</v>
@@ -6612,7 +6638,7 @@
     </row>
     <row r="309">
       <c r="A309" s="0" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B309" s="0" t="s">
         <v>29</v>
@@ -6626,7 +6652,7 @@
     </row>
     <row r="310">
       <c r="A310" s="0" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B310" s="0" t="s">
         <v>38</v>
@@ -6640,13 +6666,13 @@
     </row>
     <row r="311">
       <c r="A311" s="0" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C311" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D311" s="0" t="s">
         <v>2</v>
@@ -6654,7 +6680,7 @@
     </row>
     <row r="312">
       <c r="A312" s="0" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B312" s="0" t="s">
         <v>38</v>
@@ -6668,7 +6694,7 @@
     </row>
     <row r="313">
       <c r="A313" s="0" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B313" s="0" t="s">
         <v>43</v>
@@ -6682,7 +6708,7 @@
     </row>
     <row r="314">
       <c r="A314" s="0" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B314" s="0" t="s">
         <v>45</v>
@@ -6696,7 +6722,7 @@
     </row>
     <row r="315">
       <c r="A315" s="0" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B315" s="0" t="s">
         <v>47</v>
@@ -6710,7 +6736,7 @@
     </row>
     <row r="316">
       <c r="A316" s="0" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B316" s="0" t="s">
         <v>49</v>
@@ -6722,23 +6748,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" s="0" t="s">
-        <v>469</v>
-      </c>
-      <c r="B317" s="0" t="s">
+    <row r="317" s="1" customFormat="1">
+      <c r="A317" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B317" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C317" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D317" s="0" t="s">
+      <c r="C317" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D317" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="0" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B318" s="0" t="s">
         <v>45</v>
@@ -6750,23 +6776,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" s="0" t="s">
-        <v>471</v>
-      </c>
-      <c r="B319" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C319" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D319" s="0" t="s">
+    <row r="319" s="1" customFormat="1">
+      <c r="A319" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D319" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="0" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B320" s="0" t="s">
         <v>49</v>
@@ -6778,23 +6804,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" s="0" t="s">
-        <v>473</v>
-      </c>
-      <c r="B321" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C321" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D321" s="0" t="s">
+    <row r="321" s="1" customFormat="1">
+      <c r="A321" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D321" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="0" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B322" s="0" t="s">
         <v>45</v>
@@ -6806,23 +6832,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="B323" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C323" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D323" s="0" t="s">
+    <row r="323" s="1" customFormat="1">
+      <c r="A323" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D323" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="0" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B324" s="0" t="s">
         <v>49</v>
@@ -6836,13 +6862,13 @@
     </row>
     <row r="325">
       <c r="A325" s="0" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C325" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D325" s="0" t="s">
         <v>2</v>
@@ -6850,13 +6876,13 @@
     </row>
     <row r="326">
       <c r="A326" s="0" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C326" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D326" s="0" t="s">
         <v>2</v>
@@ -6864,13 +6890,13 @@
     </row>
     <row r="327">
       <c r="A327" s="0" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C327" s="0" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="D327" s="0" t="s">
         <v>2</v>
@@ -6878,13 +6904,13 @@
     </row>
     <row r="328">
       <c r="A328" s="0" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C328" s="0" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D328" s="0" t="s">
         <v>2</v>
@@ -6892,13 +6918,13 @@
     </row>
     <row r="329">
       <c r="A329" s="0" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C329" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D329" s="0" t="s">
         <v>2</v>
@@ -6906,13 +6932,13 @@
     </row>
     <row r="330">
       <c r="A330" s="0" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C330" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D330" s="0" t="s">
         <v>2</v>
@@ -6920,13 +6946,13 @@
     </row>
     <row r="331">
       <c r="A331" s="0" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C331" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D331" s="0" t="s">
         <v>2</v>
@@ -6934,13 +6960,13 @@
     </row>
     <row r="332">
       <c r="A332" s="0" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B332" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C332" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D332" s="0" t="s">
         <v>2</v>
@@ -6948,13 +6974,13 @@
     </row>
     <row r="333">
       <c r="A333" s="0" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C333" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D333" s="0" t="s">
         <v>2</v>
@@ -6962,13 +6988,13 @@
     </row>
     <row r="334">
       <c r="A334" s="0" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B334" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C334" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D334" s="0" t="s">
         <v>2</v>
@@ -6976,13 +7002,13 @@
     </row>
     <row r="335">
       <c r="A335" s="0" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C335" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D335" s="0" t="s">
         <v>2</v>
@@ -6990,13 +7016,13 @@
     </row>
     <row r="336">
       <c r="A336" s="0" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C336" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D336" s="0" t="s">
         <v>2</v>
@@ -7004,13 +7030,13 @@
     </row>
     <row r="337">
       <c r="A337" s="0" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B337" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C337" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D337" s="0" t="s">
         <v>2</v>
@@ -7018,13 +7044,13 @@
     </row>
     <row r="338">
       <c r="A338" s="0" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C338" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D338" s="0" t="s">
         <v>2</v>
@@ -7032,13 +7058,13 @@
     </row>
     <row r="339">
       <c r="A339" s="0" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B339" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C339" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D339" s="0" t="s">
         <v>2</v>
@@ -7046,13 +7072,13 @@
     </row>
     <row r="340">
       <c r="A340" s="0" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C340" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D340" s="0" t="s">
         <v>2</v>
@@ -7060,13 +7086,13 @@
     </row>
     <row r="341">
       <c r="A341" s="0" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C341" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D341" s="0" t="s">
         <v>2</v>
@@ -7074,13 +7100,13 @@
     </row>
     <row r="342">
       <c r="A342" s="0" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C342" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D342" s="0" t="s">
         <v>2</v>
@@ -7088,13 +7114,13 @@
     </row>
     <row r="343">
       <c r="A343" s="0" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C343" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D343" s="0" t="s">
         <v>2</v>
@@ -7102,13 +7128,13 @@
     </row>
     <row r="344">
       <c r="A344" s="0" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C344" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D344" s="0" t="s">
         <v>2</v>
@@ -7116,13 +7142,13 @@
     </row>
     <row r="345">
       <c r="A345" s="0" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C345" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D345" s="0" t="s">
         <v>2</v>
@@ -7130,13 +7156,13 @@
     </row>
     <row r="346">
       <c r="A346" s="0" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C346" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D346" s="0" t="s">
         <v>2</v>
@@ -7144,13 +7170,13 @@
     </row>
     <row r="347">
       <c r="A347" s="0" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C347" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D347" s="0" t="s">
         <v>2</v>
@@ -7158,13 +7184,13 @@
     </row>
     <row r="348">
       <c r="A348" s="0" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C348" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D348" s="0" t="s">
         <v>2</v>
@@ -7172,13 +7198,13 @@
     </row>
     <row r="349">
       <c r="A349" s="0" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C349" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D349" s="0" t="s">
         <v>2</v>
@@ -7186,13 +7212,13 @@
     </row>
     <row r="350">
       <c r="A350" s="0" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C350" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D350" s="0" t="s">
         <v>2</v>
@@ -7200,13 +7226,13 @@
     </row>
     <row r="351">
       <c r="A351" s="0" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C351" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D351" s="0" t="s">
         <v>2</v>
@@ -7214,13 +7240,13 @@
     </row>
     <row r="352">
       <c r="A352" s="0" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C352" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D352" s="0" t="s">
         <v>2</v>
@@ -7228,13 +7254,13 @@
     </row>
     <row r="353">
       <c r="A353" s="0" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C353" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D353" s="0" t="s">
         <v>2</v>
@@ -7242,7 +7268,7 @@
     </row>
     <row r="354">
       <c r="A354" s="0" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B354" s="0" t="s">
         <v>45</v>
@@ -7256,13 +7282,13 @@
     </row>
     <row r="355">
       <c r="A355" s="0" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B355" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C355" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D355" s="0" t="s">
         <v>2</v>
@@ -7270,7 +7296,7 @@
     </row>
     <row r="356">
       <c r="A356" s="0" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B356" s="0" t="s">
         <v>49</v>
@@ -7284,13 +7310,13 @@
     </row>
     <row r="357">
       <c r="A357" s="0" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C357" s="0" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D357" s="0" t="s">
         <v>2</v>
@@ -7298,13 +7324,13 @@
     </row>
     <row r="358">
       <c r="A358" s="0" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B358" s="0" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C358" s="0" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D358" s="0" t="s">
         <v>2</v>
@@ -7312,13 +7338,13 @@
     </row>
     <row r="359">
       <c r="A359" s="0" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C359" s="0" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D359" s="0" t="s">
         <v>2</v>
@@ -7326,13 +7352,13 @@
     </row>
     <row r="360">
       <c r="A360" s="0" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C360" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D360" s="0" t="s">
         <v>2</v>
@@ -7340,13 +7366,13 @@
     </row>
     <row r="361">
       <c r="A361" s="0" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C361" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D361" s="0" t="s">
         <v>2</v>
@@ -7354,13 +7380,13 @@
     </row>
     <row r="362">
       <c r="A362" s="0" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C362" s="0" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D362" s="0" t="s">
         <v>2</v>
@@ -7368,13 +7394,13 @@
     </row>
     <row r="363">
       <c r="A363" s="0" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C363" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D363" s="0" t="s">
         <v>2</v>
@@ -7382,13 +7408,13 @@
     </row>
     <row r="364">
       <c r="A364" s="0" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B364" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C364" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D364" s="0" t="s">
         <v>2</v>
@@ -7396,13 +7422,13 @@
     </row>
     <row r="365">
       <c r="A365" s="0" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B365" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C365" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D365" s="0" t="s">
         <v>2</v>
@@ -7410,13 +7436,13 @@
     </row>
     <row r="366">
       <c r="A366" s="0" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C366" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D366" s="0" t="s">
         <v>2</v>
@@ -7424,13 +7450,13 @@
     </row>
     <row r="367">
       <c r="A367" s="0" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C367" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D367" s="0" t="s">
         <v>2</v>
@@ -7438,13 +7464,13 @@
     </row>
     <row r="368">
       <c r="A368" s="0" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B368" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C368" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D368" s="0" t="s">
         <v>2</v>
@@ -7452,13 +7478,13 @@
     </row>
     <row r="369">
       <c r="A369" s="0" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B369" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C369" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D369" s="0" t="s">
         <v>2</v>
@@ -7466,13 +7492,13 @@
     </row>
     <row r="370">
       <c r="A370" s="0" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C370" s="0" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D370" s="0" t="s">
         <v>2</v>
@@ -7480,13 +7506,13 @@
     </row>
     <row r="371">
       <c r="A371" s="0" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B371" s="0" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C371" s="0" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D371" s="0" t="s">
         <v>2</v>
@@ -7494,13 +7520,13 @@
     </row>
     <row r="372">
       <c r="A372" s="0" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B372" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C372" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D372" s="0" t="s">
         <v>2</v>
@@ -7508,13 +7534,13 @@
     </row>
     <row r="373">
       <c r="A373" s="0" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B373" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C373" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D373" s="0" t="s">
         <v>2</v>
@@ -7522,13 +7548,13 @@
     </row>
     <row r="374">
       <c r="A374" s="0" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C374" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D374" s="0" t="s">
         <v>2</v>
@@ -7536,13 +7562,13 @@
     </row>
     <row r="375">
       <c r="A375" s="0" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B375" s="0" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C375" s="0" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D375" s="0" t="s">
         <v>2</v>
@@ -7550,13 +7576,13 @@
     </row>
     <row r="376">
       <c r="A376" s="0" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C376" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D376" s="0" t="s">
         <v>2</v>
@@ -7564,13 +7590,13 @@
     </row>
     <row r="377">
       <c r="A377" s="0" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C377" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D377" s="0" t="s">
         <v>2</v>
@@ -7578,13 +7604,13 @@
     </row>
     <row r="378">
       <c r="A378" s="0" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C378" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D378" s="0" t="s">
         <v>2</v>
@@ -7592,13 +7618,13 @@
     </row>
     <row r="379">
       <c r="A379" s="0" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B379" s="0" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C379" s="0" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D379" s="0" t="s">
         <v>2</v>
@@ -7606,13 +7632,13 @@
     </row>
     <row r="380">
       <c r="A380" s="0" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C380" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D380" s="0" t="s">
         <v>2</v>
@@ -7620,13 +7646,13 @@
     </row>
     <row r="381">
       <c r="A381" s="0" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C381" s="0" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D381" s="0" t="s">
         <v>2</v>
@@ -7634,13 +7660,13 @@
     </row>
     <row r="382">
       <c r="A382" s="0" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C382" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D382" s="0" t="s">
         <v>2</v>
@@ -7648,13 +7674,13 @@
     </row>
     <row r="383">
       <c r="A383" s="0" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C383" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D383" s="0" t="s">
         <v>2</v>
@@ -7662,13 +7688,13 @@
     </row>
     <row r="384">
       <c r="A384" s="0" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C384" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D384" s="0" t="s">
         <v>2</v>
@@ -7676,13 +7702,13 @@
     </row>
     <row r="385">
       <c r="A385" s="0" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B385" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C385" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D385" s="0" t="s">
         <v>2</v>
@@ -7690,13 +7716,13 @@
     </row>
     <row r="386">
       <c r="A386" s="0" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B386" s="0" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C386" s="0" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D386" s="0" t="s">
         <v>2</v>
@@ -7704,13 +7730,13 @@
     </row>
     <row r="387">
       <c r="A387" s="0" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B387" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C387" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D387" s="0" t="s">
         <v>2</v>
@@ -7718,13 +7744,13 @@
     </row>
     <row r="388">
       <c r="A388" s="0" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B388" s="0" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C388" s="0" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D388" s="0" t="s">
         <v>2</v>
@@ -7732,13 +7758,13 @@
     </row>
     <row r="389">
       <c r="A389" s="0" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B389" s="0" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C389" s="0" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D389" s="0" t="s">
         <v>2</v>
@@ -7746,13 +7772,13 @@
     </row>
     <row r="390">
       <c r="A390" s="0" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C390" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D390" s="0" t="s">
         <v>2</v>
@@ -7760,13 +7786,13 @@
     </row>
     <row r="391">
       <c r="A391" s="0" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="B391" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C391" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D391" s="0" t="s">
         <v>2</v>
@@ -7774,13 +7800,13 @@
     </row>
     <row r="392">
       <c r="A392" s="0" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B392" s="0" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C392" s="0" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D392" s="0" t="s">
         <v>2</v>
@@ -7788,13 +7814,13 @@
     </row>
     <row r="393">
       <c r="A393" s="0" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B393" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C393" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D393" s="0" t="s">
         <v>2</v>
@@ -7802,13 +7828,13 @@
     </row>
     <row r="394">
       <c r="A394" s="0" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B394" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C394" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D394" s="0" t="s">
         <v>2</v>
@@ -7816,13 +7842,13 @@
     </row>
     <row r="395">
       <c r="A395" s="0" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C395" s="0" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D395" s="0" t="s">
         <v>2</v>
@@ -7830,13 +7856,13 @@
     </row>
     <row r="396">
       <c r="A396" s="0" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="B396" s="0" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C396" s="0" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D396" s="0" t="s">
         <v>2</v>
@@ -7844,13 +7870,13 @@
     </row>
     <row r="397">
       <c r="A397" s="0" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B397" s="0" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C397" s="0" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D397" s="0" t="s">
         <v>2</v>
@@ -7858,13 +7884,13 @@
     </row>
     <row r="398">
       <c r="A398" s="0" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="B398" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C398" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D398" s="0" t="s">
         <v>2</v>
@@ -7872,13 +7898,13 @@
     </row>
     <row r="399">
       <c r="A399" s="0" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="B399" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C399" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D399" s="0" t="s">
         <v>2</v>
@@ -7886,13 +7912,13 @@
     </row>
     <row r="400">
       <c r="A400" s="0" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="B400" s="0" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C400" s="0" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D400" s="0" t="s">
         <v>2</v>
@@ -7900,13 +7926,13 @@
     </row>
     <row r="401">
       <c r="A401" s="0" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B401" s="0" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C401" s="0" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D401" s="0" t="s">
         <v>2</v>
@@ -7914,13 +7940,13 @@
     </row>
     <row r="402">
       <c r="A402" s="0" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B402" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C402" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D402" s="0" t="s">
         <v>2</v>
@@ -7928,13 +7954,13 @@
     </row>
     <row r="403">
       <c r="A403" s="0" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="B403" s="0" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C403" s="0" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D403" s="0" t="s">
         <v>2</v>
@@ -7942,13 +7968,13 @@
     </row>
     <row r="404">
       <c r="A404" s="0" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="B404" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C404" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D404" s="0" t="s">
         <v>2</v>
@@ -7956,13 +7982,13 @@
     </row>
     <row r="405">
       <c r="A405" s="0" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="B405" s="0" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C405" s="0" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D405" s="0" t="s">
         <v>2</v>
@@ -7970,13 +7996,13 @@
     </row>
     <row r="406">
       <c r="A406" s="0" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B406" s="0" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C406" s="0" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D406" s="0" t="s">
         <v>2</v>
@@ -7984,13 +8010,13 @@
     </row>
     <row r="407">
       <c r="A407" s="0" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B407" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C407" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D407" s="0" t="s">
         <v>2</v>
@@ -7998,13 +8024,13 @@
     </row>
     <row r="408">
       <c r="A408" s="0" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B408" s="0" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C408" s="0" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D408" s="0" t="s">
         <v>2</v>
@@ -8012,13 +8038,13 @@
     </row>
     <row r="409">
       <c r="A409" s="0" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B409" s="0" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C409" s="0" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D409" s="0" t="s">
         <v>2</v>
@@ -8026,13 +8052,13 @@
     </row>
     <row r="410">
       <c r="A410" s="0" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="B410" s="0" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C410" s="0" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D410" s="0" t="s">
         <v>2</v>
@@ -8040,13 +8066,13 @@
     </row>
     <row r="411">
       <c r="A411" s="0" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B411" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C411" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D411" s="0" t="s">
         <v>2</v>
@@ -8054,13 +8080,13 @@
     </row>
     <row r="412">
       <c r="A412" s="0" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="B412" s="0" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C412" s="0" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D412" s="0" t="s">
         <v>2</v>
@@ -8068,13 +8094,13 @@
     </row>
     <row r="413">
       <c r="A413" s="0" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="B413" s="0" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C413" s="0" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D413" s="0" t="s">
         <v>2</v>
@@ -8082,13 +8108,13 @@
     </row>
     <row r="414">
       <c r="A414" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="B414" s="0" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C414" s="0" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D414" s="0" t="s">
         <v>2</v>
@@ -8096,13 +8122,13 @@
     </row>
     <row r="415">
       <c r="A415" s="0" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="B415" s="0" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C415" s="0" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D415" s="0" t="s">
         <v>2</v>
@@ -8110,13 +8136,13 @@
     </row>
     <row r="416">
       <c r="A416" s="0" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B416" s="0" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C416" s="0" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D416" s="0" t="s">
         <v>2</v>
@@ -8124,13 +8150,13 @@
     </row>
     <row r="417">
       <c r="A417" s="0" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="B417" s="0" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C417" s="0" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D417" s="0" t="s">
         <v>2</v>
@@ -8138,13 +8164,13 @@
     </row>
     <row r="418">
       <c r="A418" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="B418" s="0" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C418" s="0" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D418" s="0" t="s">
         <v>2</v>
@@ -8152,13 +8178,13 @@
     </row>
     <row r="419">
       <c r="A419" s="0" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="B419" s="0" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C419" s="0" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D419" s="0" t="s">
         <v>2</v>
@@ -8166,13 +8192,13 @@
     </row>
     <row r="420">
       <c r="A420" s="0" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="B420" s="0" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C420" s="0" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D420" s="0" t="s">
         <v>2</v>
@@ -8180,13 +8206,13 @@
     </row>
     <row r="421">
       <c r="A421" s="0" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="B421" s="0" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C421" s="0" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D421" s="0" t="s">
         <v>2</v>
@@ -8194,13 +8220,13 @@
     </row>
     <row r="422">
       <c r="A422" s="0" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="B422" s="0" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C422" s="0" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D422" s="0" t="s">
         <v>2</v>
@@ -8208,13 +8234,13 @@
     </row>
     <row r="423">
       <c r="A423" s="0" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="B423" s="0" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C423" s="0" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D423" s="0" t="s">
         <v>2</v>
@@ -8222,13 +8248,13 @@
     </row>
     <row r="424">
       <c r="A424" s="0" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="B424" s="0" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C424" s="0" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D424" s="0" t="s">
         <v>2</v>
@@ -8236,13 +8262,13 @@
     </row>
     <row r="425">
       <c r="A425" s="0" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B425" s="0" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C425" s="0" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D425" s="0" t="s">
         <v>2</v>
@@ -8250,13 +8276,13 @@
     </row>
     <row r="426">
       <c r="A426" s="0" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="B426" s="0" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C426" s="0" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D426" s="0" t="s">
         <v>2</v>
@@ -8264,13 +8290,13 @@
     </row>
     <row r="427">
       <c r="A427" s="0" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="B427" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C427" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D427" s="0" t="s">
         <v>2</v>
@@ -8278,13 +8304,13 @@
     </row>
     <row r="428">
       <c r="A428" s="0" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B428" s="0" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C428" s="0" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D428" s="0" t="s">
         <v>2</v>
@@ -8292,13 +8318,13 @@
     </row>
     <row r="429">
       <c r="A429" s="0" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B429" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C429" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D429" s="0" t="s">
         <v>2</v>
@@ -8306,13 +8332,13 @@
     </row>
     <row r="430">
       <c r="A430" s="0" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="B430" s="0" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="C430" s="0" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="D430" s="0" t="s">
         <v>2</v>
@@ -8320,13 +8346,13 @@
     </row>
     <row r="431">
       <c r="A431" s="0" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="B431" s="0" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C431" s="0" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="D431" s="0" t="s">
         <v>2</v>
@@ -8334,13 +8360,13 @@
     </row>
     <row r="432">
       <c r="A432" s="0" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="B432" s="0" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C432" s="0" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="D432" s="0" t="s">
         <v>2</v>
@@ -8348,13 +8374,13 @@
     </row>
     <row r="433">
       <c r="A433" s="0" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="B433" s="0" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="C433" s="0" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="D433" s="0" t="s">
         <v>2</v>
@@ -8362,13 +8388,13 @@
     </row>
     <row r="434">
       <c r="A434" s="0" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="B434" s="0" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C434" s="0" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="D434" s="0" t="s">
         <v>2</v>
@@ -8376,13 +8402,13 @@
     </row>
     <row r="435">
       <c r="A435" s="0" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="B435" s="0" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="C435" s="0" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="D435" s="0" t="s">
         <v>2</v>
@@ -8390,13 +8416,13 @@
     </row>
     <row r="436">
       <c r="A436" s="0" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="B436" s="0" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="C436" s="0" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="D436" s="0" t="s">
         <v>2</v>
@@ -8404,13 +8430,13 @@
     </row>
     <row r="437">
       <c r="A437" s="0" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="B437" s="0" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C437" s="0" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="D437" s="0" t="s">
         <v>2</v>
@@ -8418,13 +8444,13 @@
     </row>
     <row r="438">
       <c r="A438" s="0" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="B438" s="0" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="C438" s="0" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="D438" s="0" t="s">
         <v>2</v>
@@ -8432,13 +8458,13 @@
     </row>
     <row r="439">
       <c r="A439" s="0" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="B439" s="0" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="C439" s="0" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D439" s="0" t="s">
         <v>2</v>
@@ -8446,13 +8472,13 @@
     </row>
     <row r="440">
       <c r="A440" s="0" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="B440" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C440" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D440" s="0" t="s">
         <v>2</v>
@@ -8460,13 +8486,13 @@
     </row>
     <row r="441">
       <c r="A441" s="0" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="B441" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C441" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D441" s="0" t="s">
         <v>2</v>
@@ -8474,13 +8500,13 @@
     </row>
     <row r="442">
       <c r="A442" s="0" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="B442" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C442" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D442" s="0" t="s">
         <v>2</v>
@@ -8488,13 +8514,13 @@
     </row>
     <row r="443">
       <c r="A443" s="0" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="B443" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C443" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D443" s="0" t="s">
         <v>2</v>
@@ -8502,13 +8528,13 @@
     </row>
     <row r="444">
       <c r="A444" s="0" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="B444" s="0" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C444" s="0" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="D444" s="0" t="s">
         <v>2</v>
@@ -8516,13 +8542,13 @@
     </row>
     <row r="445">
       <c r="A445" s="0" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="B445" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C445" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D445" s="0" t="s">
         <v>2</v>
@@ -8530,13 +8556,13 @@
     </row>
     <row r="446">
       <c r="A446" s="0" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="B446" s="0" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C446" s="0" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D446" s="0" t="s">
         <v>2</v>
@@ -8544,13 +8570,13 @@
     </row>
     <row r="447">
       <c r="A447" s="0" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="B447" s="0" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C447" s="0" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D447" s="0" t="s">
         <v>2</v>
@@ -8558,7 +8584,7 @@
     </row>
     <row r="448">
       <c r="A448" s="0" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="B448" s="0" t="s">
         <v>26</v>
@@ -8572,7 +8598,7 @@
     </row>
     <row r="449">
       <c r="A449" s="0" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="B449" s="0" t="s">
         <v>26</v>
@@ -8586,7 +8612,7 @@
     </row>
     <row r="450">
       <c r="A450" s="0" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B450" s="0" t="s">
         <v>29</v>
@@ -8600,7 +8626,7 @@
     </row>
     <row r="451">
       <c r="A451" s="0" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="B451" s="0" t="s">
         <v>31</v>
@@ -8614,7 +8640,7 @@
     </row>
     <row r="452">
       <c r="A452" s="0" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="B452" s="0" t="s">
         <v>31</v>
@@ -8628,7 +8654,7 @@
     </row>
     <row r="453">
       <c r="A453" s="0" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="B453" s="0" t="s">
         <v>34</v>
@@ -8642,7 +8668,7 @@
     </row>
     <row r="454">
       <c r="A454" s="0" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="B454" s="0" t="s">
         <v>34</v>
@@ -8656,7 +8682,7 @@
     </row>
     <row r="455">
       <c r="A455" s="0" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="B455" s="0" t="s">
         <v>29</v>
@@ -8670,7 +8696,7 @@
     </row>
     <row r="456">
       <c r="A456" s="0" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="B456" s="0" t="s">
         <v>38</v>
@@ -8684,13 +8710,13 @@
     </row>
     <row r="457">
       <c r="A457" s="0" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="B457" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C457" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D457" s="0" t="s">
         <v>2</v>
@@ -8698,7 +8724,7 @@
     </row>
     <row r="458">
       <c r="A458" s="0" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="B458" s="0" t="s">
         <v>38</v>
@@ -8712,7 +8738,7 @@
     </row>
     <row r="459">
       <c r="A459" s="0" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="B459" s="0" t="s">
         <v>43</v>
@@ -8726,7 +8752,7 @@
     </row>
     <row r="460">
       <c r="A460" s="0" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="B460" s="0" t="s">
         <v>45</v>
@@ -8740,7 +8766,7 @@
     </row>
     <row r="461">
       <c r="A461" s="0" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="B461" s="0" t="s">
         <v>47</v>
@@ -8754,7 +8780,7 @@
     </row>
     <row r="462">
       <c r="A462" s="0" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="B462" s="0" t="s">
         <v>49</v>
@@ -8766,23 +8792,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="463">
-      <c r="A463" s="0" t="s">
-        <v>627</v>
-      </c>
-      <c r="B463" s="0" t="s">
+    <row r="463" s="1" customFormat="1">
+      <c r="A463" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B463" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C463" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D463" s="0" t="s">
+      <c r="C463" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D463" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="0" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="B464" s="0" t="s">
         <v>45</v>
@@ -8796,13 +8822,13 @@
     </row>
     <row r="465">
       <c r="A465" s="0" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="B465" s="0" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="C465" s="0" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D465" s="0" t="s">
         <v>2</v>
@@ -8810,13 +8836,13 @@
     </row>
     <row r="466">
       <c r="A466" s="0" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="B466" s="0" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="C466" s="0" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="D466" s="0" t="s">
         <v>2</v>
@@ -8824,35 +8850,35 @@
     </row>
     <row r="467">
       <c r="A467" s="0" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="B467" s="0" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C467" s="0" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="D467" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="468">
-      <c r="A468" s="0" t="s">
-        <v>635</v>
-      </c>
-      <c r="B468" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C468" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D468" s="0" t="s">
+    <row r="468" s="1" customFormat="1">
+      <c r="A468" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D468" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="0" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="B469" s="0" t="s">
         <v>45</v>
@@ -8864,23 +8890,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="470">
-      <c r="A470" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="B470" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C470" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D470" s="0" t="s">
+    <row r="470" s="1" customFormat="1">
+      <c r="A470" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D470" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="0" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B471" s="0" t="s">
         <v>49</v>
@@ -8894,13 +8920,13 @@
     </row>
     <row r="472">
       <c r="A472" s="0" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="B472" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C472" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D472" s="0" t="s">
         <v>2</v>
@@ -8908,13 +8934,13 @@
     </row>
     <row r="473">
       <c r="A473" s="0" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="B473" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C473" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D473" s="0" t="s">
         <v>2</v>
@@ -8922,13 +8948,13 @@
     </row>
     <row r="474">
       <c r="A474" s="0" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="B474" s="0" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C474" s="0" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="D474" s="0" t="s">
         <v>2</v>
@@ -8936,13 +8962,13 @@
     </row>
     <row r="475">
       <c r="A475" s="0" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="B475" s="0" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C475" s="0" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D475" s="0" t="s">
         <v>2</v>
@@ -8950,13 +8976,13 @@
     </row>
     <row r="476">
       <c r="A476" s="0" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="B476" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C476" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D476" s="0" t="s">
         <v>2</v>
@@ -8964,13 +8990,13 @@
     </row>
     <row r="477">
       <c r="A477" s="0" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="B477" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C477" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D477" s="0" t="s">
         <v>2</v>
@@ -8978,13 +9004,13 @@
     </row>
     <row r="478">
       <c r="A478" s="0" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="B478" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C478" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D478" s="0" t="s">
         <v>2</v>
@@ -8992,13 +9018,13 @@
     </row>
     <row r="479">
       <c r="A479" s="0" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="B479" s="0" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="C479" s="0" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="D479" s="0" t="s">
         <v>2</v>
@@ -9006,13 +9032,13 @@
     </row>
     <row r="480">
       <c r="A480" s="0" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="B480" s="0" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="C480" s="0" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="D480" s="0" t="s">
         <v>2</v>
@@ -9020,13 +9046,13 @@
     </row>
     <row r="481">
       <c r="A481" s="0" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="B481" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C481" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D481" s="0" t="s">
         <v>2</v>
@@ -9034,13 +9060,13 @@
     </row>
     <row r="482">
       <c r="A482" s="0" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="B482" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C482" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D482" s="0" t="s">
         <v>2</v>
@@ -9048,13 +9074,13 @@
     </row>
     <row r="483">
       <c r="A483" s="0" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="B483" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C483" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D483" s="0" t="s">
         <v>2</v>
@@ -9062,13 +9088,13 @@
     </row>
     <row r="484">
       <c r="A484" s="0" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="B484" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C484" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D484" s="0" t="s">
         <v>2</v>
@@ -9076,13 +9102,13 @@
     </row>
     <row r="485">
       <c r="A485" s="0" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="B485" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C485" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D485" s="0" t="s">
         <v>2</v>
@@ -9090,13 +9116,13 @@
     </row>
     <row r="486">
       <c r="A486" s="0" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="B486" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C486" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D486" s="0" t="s">
         <v>2</v>
@@ -9104,13 +9130,13 @@
     </row>
     <row r="487">
       <c r="A487" s="0" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="B487" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C487" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D487" s="0" t="s">
         <v>2</v>
@@ -9118,13 +9144,13 @@
     </row>
     <row r="488">
       <c r="A488" s="0" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="B488" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C488" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D488" s="0" t="s">
         <v>2</v>
@@ -9132,13 +9158,13 @@
     </row>
     <row r="489">
       <c r="A489" s="0" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="B489" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C489" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D489" s="0" t="s">
         <v>2</v>
@@ -9146,13 +9172,13 @@
     </row>
     <row r="490">
       <c r="A490" s="0" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="B490" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C490" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D490" s="0" t="s">
         <v>2</v>
@@ -9160,13 +9186,13 @@
     </row>
     <row r="491">
       <c r="A491" s="0" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="B491" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C491" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D491" s="0" t="s">
         <v>2</v>
@@ -9174,13 +9200,13 @@
     </row>
     <row r="492">
       <c r="A492" s="0" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="B492" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C492" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D492" s="0" t="s">
         <v>2</v>
@@ -9188,13 +9214,13 @@
     </row>
     <row r="493">
       <c r="A493" s="0" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B493" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C493" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D493" s="0" t="s">
         <v>2</v>
@@ -9202,13 +9228,13 @@
     </row>
     <row r="494">
       <c r="A494" s="0" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="B494" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C494" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D494" s="0" t="s">
         <v>2</v>
@@ -9216,13 +9242,13 @@
     </row>
     <row r="495">
       <c r="A495" s="0" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="B495" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C495" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D495" s="0" t="s">
         <v>2</v>
@@ -9230,13 +9256,13 @@
     </row>
     <row r="496">
       <c r="A496" s="0" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="B496" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C496" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D496" s="0" t="s">
         <v>2</v>
@@ -9244,13 +9270,13 @@
     </row>
     <row r="497">
       <c r="A497" s="0" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="B497" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C497" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D497" s="0" t="s">
         <v>2</v>
@@ -9258,13 +9284,13 @@
     </row>
     <row r="498">
       <c r="A498" s="0" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="B498" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C498" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D498" s="0" t="s">
         <v>2</v>
@@ -9272,13 +9298,13 @@
     </row>
     <row r="499">
       <c r="A499" s="0" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="B499" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C499" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D499" s="0" t="s">
         <v>2</v>
@@ -9286,13 +9312,13 @@
     </row>
     <row r="500">
       <c r="A500" s="0" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="B500" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C500" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D500" s="0" t="s">
         <v>2</v>
@@ -9300,7 +9326,7 @@
     </row>
     <row r="501">
       <c r="A501" s="0" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="B501" s="0" t="s">
         <v>45</v>
@@ -9314,13 +9340,13 @@
     </row>
     <row r="502">
       <c r="A502" s="0" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="B502" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C502" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D502" s="0" t="s">
         <v>2</v>
@@ -9328,7 +9354,7 @@
     </row>
     <row r="503">
       <c r="A503" s="0" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="B503" s="0" t="s">
         <v>49</v>
@@ -9342,13 +9368,13 @@
     </row>
     <row r="504">
       <c r="A504" s="0" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="B504" s="0" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="C504" s="0" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D504" s="0" t="s">
         <v>2</v>
@@ -9356,13 +9382,13 @@
     </row>
     <row r="505">
       <c r="A505" s="0" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="B505" s="0" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C505" s="0" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D505" s="0" t="s">
         <v>2</v>
@@ -9370,13 +9396,13 @@
     </row>
     <row r="506">
       <c r="A506" s="0" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="B506" s="0" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C506" s="0" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D506" s="0" t="s">
         <v>2</v>
@@ -9384,13 +9410,13 @@
     </row>
     <row r="507">
       <c r="A507" s="0" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="B507" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C507" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D507" s="0" t="s">
         <v>2</v>
@@ -9398,13 +9424,13 @@
     </row>
     <row r="508">
       <c r="A508" s="0" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="B508" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C508" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D508" s="0" t="s">
         <v>2</v>
@@ -9412,13 +9438,13 @@
     </row>
     <row r="509">
       <c r="A509" s="0" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="B509" s="0" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C509" s="0" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D509" s="0" t="s">
         <v>2</v>
@@ -9426,13 +9452,13 @@
     </row>
     <row r="510">
       <c r="A510" s="0" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="B510" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C510" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D510" s="0" t="s">
         <v>2</v>
@@ -9440,13 +9466,13 @@
     </row>
     <row r="511">
       <c r="A511" s="0" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="B511" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C511" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D511" s="0" t="s">
         <v>2</v>
@@ -9454,13 +9480,13 @@
     </row>
     <row r="512">
       <c r="A512" s="0" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="B512" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C512" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D512" s="0" t="s">
         <v>2</v>
@@ -9468,13 +9494,13 @@
     </row>
     <row r="513">
       <c r="A513" s="0" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="B513" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C513" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D513" s="0" t="s">
         <v>2</v>
@@ -9482,13 +9508,13 @@
     </row>
     <row r="514">
       <c r="A514" s="0" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="B514" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C514" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D514" s="0" t="s">
         <v>2</v>
@@ -9496,13 +9522,13 @@
     </row>
     <row r="515">
       <c r="A515" s="0" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="B515" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C515" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D515" s="0" t="s">
         <v>2</v>
@@ -9510,13 +9536,13 @@
     </row>
     <row r="516">
       <c r="A516" s="0" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B516" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C516" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D516" s="0" t="s">
         <v>2</v>
@@ -9524,13 +9550,13 @@
     </row>
     <row r="517">
       <c r="A517" s="0" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="B517" s="0" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C517" s="0" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D517" s="0" t="s">
         <v>2</v>
@@ -9538,13 +9564,13 @@
     </row>
     <row r="518">
       <c r="A518" s="0" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="B518" s="0" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C518" s="0" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D518" s="0" t="s">
         <v>2</v>
@@ -9552,13 +9578,13 @@
     </row>
     <row r="519">
       <c r="A519" s="0" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="B519" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C519" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D519" s="0" t="s">
         <v>2</v>
@@ -9566,13 +9592,13 @@
     </row>
     <row r="520">
       <c r="A520" s="0" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="B520" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C520" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D520" s="0" t="s">
         <v>2</v>
@@ -9580,13 +9606,13 @@
     </row>
     <row r="521">
       <c r="A521" s="0" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="B521" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C521" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D521" s="0" t="s">
         <v>2</v>
@@ -9594,13 +9620,13 @@
     </row>
     <row r="522">
       <c r="A522" s="0" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="B522" s="0" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C522" s="0" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D522" s="0" t="s">
         <v>2</v>
@@ -9608,13 +9634,13 @@
     </row>
     <row r="523">
       <c r="A523" s="0" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="B523" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C523" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D523" s="0" t="s">
         <v>2</v>
@@ -9622,13 +9648,13 @@
     </row>
     <row r="524">
       <c r="A524" s="0" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="B524" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C524" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D524" s="0" t="s">
         <v>2</v>
@@ -9636,13 +9662,13 @@
     </row>
     <row r="525">
       <c r="A525" s="0" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="B525" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C525" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D525" s="0" t="s">
         <v>2</v>
@@ -9650,13 +9676,13 @@
     </row>
     <row r="526">
       <c r="A526" s="0" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="B526" s="0" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C526" s="0" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D526" s="0" t="s">
         <v>2</v>
@@ -9664,13 +9690,13 @@
     </row>
     <row r="527">
       <c r="A527" s="0" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="B527" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C527" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D527" s="0" t="s">
         <v>2</v>
@@ -9678,13 +9704,13 @@
     </row>
     <row r="528">
       <c r="A528" s="0" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="B528" s="0" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C528" s="0" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D528" s="0" t="s">
         <v>2</v>
@@ -9692,13 +9718,13 @@
     </row>
     <row r="529">
       <c r="A529" s="0" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="B529" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C529" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D529" s="0" t="s">
         <v>2</v>
@@ -9706,13 +9732,13 @@
     </row>
     <row r="530">
       <c r="A530" s="0" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="B530" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C530" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D530" s="0" t="s">
         <v>2</v>
@@ -9720,13 +9746,13 @@
     </row>
     <row r="531">
       <c r="A531" s="0" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="B531" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C531" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D531" s="0" t="s">
         <v>2</v>
@@ -9734,13 +9760,13 @@
     </row>
     <row r="532">
       <c r="A532" s="0" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="B532" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C532" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D532" s="0" t="s">
         <v>2</v>
@@ -9748,13 +9774,13 @@
     </row>
     <row r="533">
       <c r="A533" s="0" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="B533" s="0" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C533" s="0" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D533" s="0" t="s">
         <v>2</v>
@@ -9762,13 +9788,13 @@
     </row>
     <row r="534">
       <c r="A534" s="0" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="B534" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C534" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D534" s="0" t="s">
         <v>2</v>
@@ -9776,13 +9802,13 @@
     </row>
     <row r="535">
       <c r="A535" s="0" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="B535" s="0" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C535" s="0" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D535" s="0" t="s">
         <v>2</v>
@@ -9790,13 +9816,13 @@
     </row>
     <row r="536">
       <c r="A536" s="0" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="B536" s="0" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C536" s="0" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D536" s="0" t="s">
         <v>2</v>
@@ -9804,13 +9830,13 @@
     </row>
     <row r="537">
       <c r="A537" s="0" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="B537" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C537" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D537" s="0" t="s">
         <v>2</v>
@@ -9818,13 +9844,13 @@
     </row>
     <row r="538">
       <c r="A538" s="0" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="B538" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C538" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D538" s="0" t="s">
         <v>2</v>
@@ -9832,13 +9858,13 @@
     </row>
     <row r="539">
       <c r="A539" s="0" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="B539" s="0" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C539" s="0" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D539" s="0" t="s">
         <v>2</v>
@@ -9846,13 +9872,13 @@
     </row>
     <row r="540">
       <c r="A540" s="0" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="B540" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C540" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D540" s="0" t="s">
         <v>2</v>
@@ -9860,13 +9886,13 @@
     </row>
     <row r="541">
       <c r="A541" s="0" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="B541" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C541" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D541" s="0" t="s">
         <v>2</v>
@@ -9874,13 +9900,13 @@
     </row>
     <row r="542">
       <c r="A542" s="0" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="B542" s="0" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C542" s="0" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D542" s="0" t="s">
         <v>2</v>
@@ -9888,13 +9914,13 @@
     </row>
     <row r="543">
       <c r="A543" s="0" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="B543" s="0" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C543" s="0" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D543" s="0" t="s">
         <v>2</v>
@@ -9902,13 +9928,13 @@
     </row>
     <row r="544">
       <c r="A544" s="0" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="B544" s="0" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C544" s="0" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D544" s="0" t="s">
         <v>2</v>
@@ -9916,13 +9942,13 @@
     </row>
     <row r="545">
       <c r="A545" s="0" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="B545" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C545" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D545" s="0" t="s">
         <v>2</v>
@@ -9930,13 +9956,13 @@
     </row>
     <row r="546">
       <c r="A546" s="0" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="B546" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C546" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D546" s="0" t="s">
         <v>2</v>
@@ -9944,13 +9970,13 @@
     </row>
     <row r="547">
       <c r="A547" s="0" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="B547" s="0" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C547" s="0" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D547" s="0" t="s">
         <v>2</v>
@@ -9958,13 +9984,13 @@
     </row>
     <row r="548">
       <c r="A548" s="0" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="B548" s="0" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C548" s="0" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D548" s="0" t="s">
         <v>2</v>
@@ -9972,13 +9998,13 @@
     </row>
     <row r="549">
       <c r="A549" s="0" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="B549" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C549" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D549" s="0" t="s">
         <v>2</v>
@@ -9986,13 +10012,13 @@
     </row>
     <row r="550">
       <c r="A550" s="0" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="B550" s="0" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C550" s="0" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D550" s="0" t="s">
         <v>2</v>
@@ -10000,13 +10026,13 @@
     </row>
     <row r="551">
       <c r="A551" s="0" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="B551" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C551" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D551" s="0" t="s">
         <v>2</v>
@@ -10014,13 +10040,13 @@
     </row>
     <row r="552">
       <c r="A552" s="0" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="B552" s="0" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C552" s="0" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D552" s="0" t="s">
         <v>2</v>
@@ -10028,13 +10054,13 @@
     </row>
     <row r="553">
       <c r="A553" s="0" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="B553" s="0" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C553" s="0" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D553" s="0" t="s">
         <v>2</v>
@@ -10042,13 +10068,13 @@
     </row>
     <row r="554">
       <c r="A554" s="0" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="B554" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C554" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D554" s="0" t="s">
         <v>2</v>
@@ -10056,13 +10082,13 @@
     </row>
     <row r="555">
       <c r="A555" s="0" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="B555" s="0" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C555" s="0" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D555" s="0" t="s">
         <v>2</v>
@@ -10070,13 +10096,13 @@
     </row>
     <row r="556">
       <c r="A556" s="0" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="B556" s="0" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C556" s="0" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D556" s="0" t="s">
         <v>2</v>
@@ -10084,13 +10110,13 @@
     </row>
     <row r="557">
       <c r="A557" s="0" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="B557" s="0" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C557" s="0" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D557" s="0" t="s">
         <v>2</v>
@@ -10098,13 +10124,13 @@
     </row>
     <row r="558">
       <c r="A558" s="0" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="B558" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C558" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D558" s="0" t="s">
         <v>2</v>
@@ -10112,13 +10138,13 @@
     </row>
     <row r="559">
       <c r="A559" s="0" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="B559" s="0" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C559" s="0" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D559" s="0" t="s">
         <v>2</v>
@@ -10126,13 +10152,13 @@
     </row>
     <row r="560">
       <c r="A560" s="0" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="B560" s="0" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C560" s="0" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D560" s="0" t="s">
         <v>2</v>
@@ -10140,13 +10166,13 @@
     </row>
     <row r="561">
       <c r="A561" s="0" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="B561" s="0" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C561" s="0" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D561" s="0" t="s">
         <v>2</v>
@@ -10154,13 +10180,13 @@
     </row>
     <row r="562">
       <c r="A562" s="0" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="B562" s="0" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C562" s="0" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D562" s="0" t="s">
         <v>2</v>
@@ -10168,13 +10194,13 @@
     </row>
     <row r="563">
       <c r="A563" s="0" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="B563" s="0" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C563" s="0" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D563" s="0" t="s">
         <v>2</v>
@@ -10182,13 +10208,13 @@
     </row>
     <row r="564">
       <c r="A564" s="0" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="B564" s="0" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C564" s="0" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D564" s="0" t="s">
         <v>2</v>
@@ -10196,13 +10222,13 @@
     </row>
     <row r="565">
       <c r="A565" s="0" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="B565" s="0" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C565" s="0" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D565" s="0" t="s">
         <v>2</v>
@@ -10210,13 +10236,13 @@
     </row>
     <row r="566">
       <c r="A566" s="0" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="B566" s="0" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C566" s="0" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D566" s="0" t="s">
         <v>2</v>
@@ -10224,13 +10250,13 @@
     </row>
     <row r="567">
       <c r="A567" s="0" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="B567" s="0" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C567" s="0" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D567" s="0" t="s">
         <v>2</v>
@@ -10238,13 +10264,13 @@
     </row>
     <row r="568">
       <c r="A568" s="0" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="B568" s="0" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C568" s="0" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D568" s="0" t="s">
         <v>2</v>
@@ -10252,13 +10278,13 @@
     </row>
     <row r="569">
       <c r="A569" s="0" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="B569" s="0" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C569" s="0" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D569" s="0" t="s">
         <v>2</v>
@@ -10266,13 +10292,13 @@
     </row>
     <row r="570">
       <c r="A570" s="0" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="B570" s="0" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C570" s="0" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D570" s="0" t="s">
         <v>2</v>
@@ -10280,13 +10306,13 @@
     </row>
     <row r="571">
       <c r="A571" s="0" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="B571" s="0" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C571" s="0" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D571" s="0" t="s">
         <v>2</v>
@@ -10294,13 +10320,13 @@
     </row>
     <row r="572">
       <c r="A572" s="0" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="B572" s="0" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C572" s="0" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D572" s="0" t="s">
         <v>2</v>
@@ -10308,13 +10334,13 @@
     </row>
     <row r="573">
       <c r="A573" s="0" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="B573" s="0" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C573" s="0" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D573" s="0" t="s">
         <v>2</v>
@@ -10322,13 +10348,13 @@
     </row>
     <row r="574">
       <c r="A574" s="0" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="B574" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C574" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D574" s="0" t="s">
         <v>2</v>
@@ -10336,13 +10362,13 @@
     </row>
     <row r="575">
       <c r="A575" s="0" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="B575" s="0" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C575" s="0" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D575" s="0" t="s">
         <v>2</v>
